--- a/biology/Botanique/Cakile/Cakile.xlsx
+++ b/biology/Botanique/Cakile/Cakile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cakile est un genre de plantes à fleurs de la famille des Brassicaceae.
 </t>
@@ -511,26 +523,28 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 mai 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 mai 2012) :
 Cakile arabica
 Cakile constricta
 Cakile edentula - Caquillier édentulé
 Cakile geniculata
 Cakile lanceolata
 Cakile maritima
-Selon ITIS      (9 mai 2012)[2] :
+Selon ITIS      (9 mai 2012) :
 Cakile constricta Rodman
 Cakile edentula (Bigelow) Hook. - Caquillier édentulé
 Cakile geniculata (B.L. Rob.) Millsp.
 Cakile lanceolata (Willd.) O.E. Schulz
 Cakile maritima Scop.
-Selon NCBI  (9 mai 2012)[3] :
+Selon NCBI  (9 mai 2012) :
 Cakile edentula - Caquillier édentulé
 Cakile lanceolata
 Cakile maritima
-Selon World Register of Marine Species                               (9 mai 2012)[4] :
+Selon World Register of Marine Species                               (9 mai 2012) :
 Cakile constricta Rodman, 1974
 Cakile geniculata (Robbins) Millspaugh, 1900
 Cakile lanceolata (Willdenow) O. E. Schulz, 1903
@@ -562,9 +576,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cakile est un nom d'origine arabe, issu de kakeleh, qaqila, qaqulla, termes désignant la cardamone, et qui apparaît en 1754 dans le dictionnaire The Gardeners Dictionary du botaniste écossais Philip Miller[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cakile est un nom d'origine arabe, issu de kakeleh, qaqila, qaqulla, termes désignant la cardamone, et qui apparaît en 1754 dans le dictionnaire The Gardeners Dictionary du botaniste écossais Philip Miller. 
 </t>
         </is>
       </c>
